--- a/data/manual_evaluation/results/counter_eval_sr.xlsx
+++ b/data/manual_evaluation/results/counter_eval_sr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr7541\Documents\SRR\CLIENTS\MILAD ALSHOMARY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B7272F-3316-4CDA-A737-3D4D47D7F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F4FB20-BF7D-4B63-8A24-22C736440007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2403,7 +2403,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2414,6 +2414,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2430,7 +2436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2440,6 +2446,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2827,10 +2836,10 @@
   <dimension ref="A1:AMB401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="14" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:E1"/>
+      <selection pane="bottomRight" activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -5187,8 +5196,8 @@
       <c r="C210" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D210" s="1">
-        <v>4</v>
+      <c r="D210" s="4">
+        <v>3</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>694</v>
